--- a/Report/Log sheet (Greg).xlsx
+++ b/Report/Log sheet (Greg).xlsx
@@ -5,31 +5,32 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jocelyn\Desktop\Project\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jocelyn\Documents\GitHub\CSC3600\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ACTIVITY LOG SHEET(12)" sheetId="17" r:id="rId1"/>
-    <sheet name="ACTIVITY LOG SHEET(11)" sheetId="16" r:id="rId2"/>
-    <sheet name="ACTIVITY LOG SHEET(10)" sheetId="15" r:id="rId3"/>
-    <sheet name="ACTIVITY LOG SHEET(9)" sheetId="14" r:id="rId4"/>
-    <sheet name="ACTIVITY LOG SHEET(8)" sheetId="13" r:id="rId5"/>
-    <sheet name="ACTIVITY LOG SHEET(7)" sheetId="12" r:id="rId6"/>
-    <sheet name="ACTIVITY LOG SHEET(6)" sheetId="11" r:id="rId7"/>
-    <sheet name="ACTIVITY LOG SHEET(5)" sheetId="10" r:id="rId8"/>
-    <sheet name="ACTIVITY LOG SHEET(4)" sheetId="9" r:id="rId9"/>
-    <sheet name="ACTIVITY LOG SHEET(3) " sheetId="1" r:id="rId10"/>
-    <sheet name="ACTIVITY LOG SHEET(2)" sheetId="7" r:id="rId11"/>
+    <sheet name="ACTIVITY LOG SHEET(13)" sheetId="18" r:id="rId1"/>
+    <sheet name="ACTIVITY LOG SHEET(12)" sheetId="17" r:id="rId2"/>
+    <sheet name="ACTIVITY LOG SHEET(11)" sheetId="16" r:id="rId3"/>
+    <sheet name="ACTIVITY LOG SHEET(10)" sheetId="15" r:id="rId4"/>
+    <sheet name="ACTIVITY LOG SHEET(9)" sheetId="14" r:id="rId5"/>
+    <sheet name="ACTIVITY LOG SHEET(8)" sheetId="13" r:id="rId6"/>
+    <sheet name="ACTIVITY LOG SHEET(7)" sheetId="12" r:id="rId7"/>
+    <sheet name="ACTIVITY LOG SHEET(6)" sheetId="11" r:id="rId8"/>
+    <sheet name="ACTIVITY LOG SHEET(5)" sheetId="10" r:id="rId9"/>
+    <sheet name="ACTIVITY LOG SHEET(4)" sheetId="9" r:id="rId10"/>
+    <sheet name="ACTIVITY LOG SHEET(3) " sheetId="1" r:id="rId11"/>
+    <sheet name="ACTIVITY LOG SHEET(2)" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="117">
   <si>
     <t xml:space="preserve">ACTIVITY LOG SHEET </t>
   </si>
@@ -379,7 +380,7 @@
     <t>Added ability to select multiple root folders</t>
   </si>
   <si>
-    <t>Created excel ta</t>
+    <t>Cost Analysis</t>
   </si>
 </sst>
 </file>
@@ -796,6 +797,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -809,21 +825,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1195,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1208,40 +1209,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1261,98 +1262,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="64.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="36"/>
+    <row r="4" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="31"/>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="15">
-        <v>43377</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>40</v>
+        <v>43382</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="15">
-        <v>43379</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0.375</v>
-      </c>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="6">
-        <v>2</v>
-      </c>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="46.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
-        <v>115</v>
-      </c>
+      <c r="A6" s="25"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15">
-        <v>43379</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.5</v>
-      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="6">
-        <v>3</v>
-      </c>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="46.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
-        <v>114</v>
-      </c>
+      <c r="A7" s="25"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15">
-        <v>43380</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6">
-        <v>2</v>
-      </c>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
-        <v>116</v>
-      </c>
+      <c r="A8" s="25"/>
       <c r="B8" s="26"/>
       <c r="C8" s="9"/>
       <c r="D8" s="15"/>
@@ -1432,8 +1395,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="7"/>
@@ -1442,21 +1405,21 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="2">
         <f>SUM(G4:G16)</f>
         <v>0</v>
       </c>
       <c r="H17" s="2">
         <f>SUM(H4:H16)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1487,6 +1450,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:E2"/>
@@ -1494,16 +1467,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1511,6 +1474,310 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43324</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="18">
+        <v>43327</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="18">
+        <v>43327</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="2">
+        <f>SUM(G4:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <f>SUM(H4:H16)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -1525,27 +1792,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
@@ -1555,10 +1822,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1579,10 +1846,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1771,8 +2038,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="7"/>
@@ -1781,14 +2048,14 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="2">
         <f>SUM(G4:G16)</f>
         <v>1</v>
@@ -1826,11 +2093,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -1843,18 +2105,23 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1864,27 +2131,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
@@ -1894,10 +2161,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1917,29 +2184,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="15">
-        <v>43311</v>
+        <v>43302</v>
       </c>
       <c r="E4" s="16">
-        <v>0.77083333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F4" s="17">
-        <v>0.80555555555555547</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>31</v>
       </c>
@@ -1947,11 +2214,11 @@
       <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="18">
-        <v>43316</v>
+      <c r="D5" s="15">
+        <v>43302</v>
       </c>
       <c r="E5" s="16">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F5" s="19">
         <v>0.45833333333333331</v>
@@ -1961,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>20</v>
       </c>
@@ -1969,21 +2236,21 @@
       <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18">
-        <v>43315</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>25</v>
+      <c r="D6" s="15">
+        <v>43302</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.5</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>32</v>
       </c>
@@ -1991,14 +2258,14 @@
       <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="18">
-        <v>43316</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>26</v>
+      <c r="D7" s="15">
+        <v>43303</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.375</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6">
@@ -2014,17 +2281,17 @@
         <v>16</v>
       </c>
       <c r="D8" s="18">
-        <v>43316</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>43303</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.45833333333333331</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2036,17 +2303,17 @@
         <v>16</v>
       </c>
       <c r="D9" s="18">
-        <v>43314</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>25</v>
+        <v>43303</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.5</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2110,8 +2377,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="7"/>
@@ -2120,21 +2387,21 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="2">
         <f>SUM(G4:G16)</f>
         <v>0</v>
       </c>
       <c r="H17" s="2">
         <f>SUM(H4:H16)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2165,6 +2432,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:E2"/>
@@ -2177,11 +2449,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2192,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2205,40 +2472,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2259,21 +2526,21 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="64.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="36"/>
+      <c r="A4" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="31"/>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="15">
-        <v>43370</v>
+        <v>43377</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6">
@@ -2281,156 +2548,110 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="36"/>
+      <c r="A5" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="31"/>
       <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="15">
-        <v>43372</v>
+        <v>43379</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>109</v>
+      <c r="F5" s="19">
+        <v>0.375</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="46.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="15">
-        <v>43372</v>
+        <v>43379</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="F6" s="19">
-        <v>0.39583333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="46.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="15">
-        <v>43372</v>
+        <v>43380</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>77</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="67.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
-        <v>104</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="15">
-        <v>43373</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="70.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>105</v>
-      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15">
-        <v>43373</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="46.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
-        <v>110</v>
-      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="15">
-        <v>43374</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="83.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
-        <v>111</v>
-      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="15">
-        <v>43374</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
@@ -2473,8 +2694,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="7"/>
@@ -2483,21 +2704,21 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="2">
         <f>SUM(G4:G16)</f>
         <v>0</v>
       </c>
       <c r="H17" s="2">
         <f>SUM(H4:H16)</f>
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2555,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2568,40 +2789,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2622,15 +2843,15 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="64.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="36"/>
+      <c r="A4" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="31"/>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="15">
-        <v>43364</v>
+        <v>43370</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>28</v>
@@ -2644,43 +2865,43 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="36"/>
+      <c r="A5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="31"/>
       <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="15">
-        <v>43365</v>
+        <v>43372</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="46.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="15">
-        <v>43365</v>
+        <v>43372</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>23</v>
+        <v>109</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.39583333333333331</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6">
@@ -2689,101 +2910,111 @@
     </row>
     <row r="7" spans="1:8" ht="46.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="15">
-        <v>43365</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>80</v>
+        <v>43372</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="50.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="67.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="15">
-        <v>43365</v>
+        <v>43373</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="40.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="70.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="15">
-        <v>43365</v>
+        <v>43373</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="46.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="15">
-        <v>43366</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>43374</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.35416666666666669</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="83.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="B11" s="26"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="15">
+        <v>43374</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
@@ -2826,8 +3057,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="7"/>
@@ -2836,21 +3067,21 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="2">
         <f>SUM(G4:G16)</f>
         <v>0</v>
       </c>
       <c r="H17" s="2">
         <f>SUM(H4:H16)</f>
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2909,6 +3140,359 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="17.09765625" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="64.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43364</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15">
+        <v>43365</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="46.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15">
+        <v>43365</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="46.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15">
+        <v>43365</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="50.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15">
+        <v>43365</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15">
+        <v>43365</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="46.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="15">
+        <v>43366</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="2">
+        <f>SUM(G4:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <f>SUM(H4:H16)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
@@ -2921,27 +3505,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
@@ -2951,10 +3535,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2975,10 +3559,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
@@ -2997,10 +3581,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
@@ -3179,8 +3763,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="7"/>
@@ -3189,14 +3773,14 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="2">
         <f>SUM(G4:G16)</f>
         <v>1</v>
@@ -3234,6 +3818,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:E2"/>
@@ -3246,18 +3835,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -3274,27 +3858,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
@@ -3304,10 +3888,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3328,10 +3912,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
@@ -3580,8 +4164,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="7"/>
@@ -3590,346 +4174,17 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="2">
         <f>SUM(G4:G16)</f>
         <v>1.5</v>
-      </c>
-      <c r="H17" s="2">
-        <f>SUM(H4:H16)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:F17"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="17.09765625" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="15">
-        <v>43342</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="15">
-        <v>43344</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15">
-        <v>43344</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15">
-        <v>43345</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="50.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="15">
-        <v>43345</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="2">
-        <f>SUM(G4:G16)</f>
-        <v>1</v>
       </c>
       <c r="H17" s="2">
         <f>SUM(H4:H16)</f>
@@ -3991,6 +4246,335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="17.09765625" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43342</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15">
+        <v>43344</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15">
+        <v>43344</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15">
+        <v>43345</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="50.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15">
+        <v>43345</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="2">
+        <f>SUM(G4:G16)</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <f>SUM(H4:H16)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
@@ -4003,27 +4587,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
@@ -4033,10 +4617,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4057,10 +4641,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="35.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
@@ -4225,8 +4809,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="7"/>
@@ -4235,14 +4819,14 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="2">
         <f>SUM(G4:G16)</f>
         <v>0</v>
@@ -4250,322 +4834,6 @@
       <c r="H17" s="2">
         <f>SUM(H4:H16)</f>
         <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15">
-        <v>43330</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18">
-        <v>43330</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="18">
-        <v>43331</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="18">
-        <v>43331</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="2">
-        <f>SUM(G4:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <f>SUM(H4:H16)</f>
-        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4635,40 +4903,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4689,43 +4957,43 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="36"/>
+      <c r="A4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="31"/>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="15">
-        <v>43324</v>
+        <v>43330</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="18">
-        <v>43327</v>
+        <v>43330</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6">
@@ -4734,20 +5002,20 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="18">
-        <v>43327</v>
+        <v>43331</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6">
@@ -4755,14 +5023,26 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="B7" s="26"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="18">
+        <v>43331</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
@@ -4845,8 +5125,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="7"/>
@@ -4855,21 +5135,21 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="2">
         <f>SUM(G4:G16)</f>
         <v>0</v>
       </c>
       <c r="H17" s="2">
         <f>SUM(H4:H16)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -4900,23 +5180,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
